--- a/ic.xlsx
+++ b/ic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\O006\Desktop\Perso\AIChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A189C42F-2099-4BEC-92B7-C93EE3A3BBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB31B07-3C1F-473F-98A4-E8C78304274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Widget type</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>last 2 years only, numbers of distinct days covers at least 10% of period</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>anything that isn't a date or amount</t>
   </si>
 </sst>
 </file>
@@ -222,8 +228,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C6" t="str">
@@ -605,7 +614,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C7" t="str">
@@ -621,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C8" t="str">
@@ -637,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C9" t="str">
@@ -653,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="str">
-        <f>columns!A5</f>
+        <f>columns!A6</f>
         <v>actor</v>
       </c>
       <c r="C10" t="str">
@@ -669,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C11" t="str">
@@ -685,7 +694,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C12" t="str">
@@ -701,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C13" t="str">
@@ -717,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C14" t="str">
@@ -827,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C21" t="str">
@@ -847,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C22" t="str">
@@ -867,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C23" t="str">
@@ -887,7 +896,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C24" t="str">
@@ -907,7 +916,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C25" t="str">
@@ -927,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B26" t="str">
-        <f>columns!A4</f>
+        <f>columns!A5</f>
         <v>category</v>
       </c>
       <c r="C26" t="str">
@@ -947,7 +956,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="str">
-        <f>columns!A5</f>
+        <f>columns!A6</f>
         <v>actor</v>
       </c>
       <c r="C27" t="str">
@@ -969,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486685FB-CFE5-4739-AD59-9B06E13E3C14}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +989,7 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -988,7 +997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1004,21 +1013,37 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ic.xlsx
+++ b/ic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\O006\Desktop\Perso\AIChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB31B07-3C1F-473F-98A4-E8C78304274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3695A22-F5DD-40CA-A304-88F6A4E119C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="widgets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Widget type</t>
   </si>
@@ -78,21 +78,6 @@
     <t>monthly amount</t>
   </si>
   <si>
-    <t>table sum per category</t>
-  </si>
-  <si>
-    <t>table avg per category</t>
-  </si>
-  <si>
-    <t>table max per category</t>
-  </si>
-  <si>
-    <t>table min per category</t>
-  </si>
-  <si>
-    <t>top 10 actors</t>
-  </si>
-  <si>
     <t>sum</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>more than 10 actors</t>
   </si>
   <si>
-    <t>less than 15 categories</t>
-  </si>
-  <si>
     <t>camembert sum per category with other</t>
   </si>
   <si>
@@ -193,6 +175,27 @@
   </si>
   <si>
     <t>anything that isn't a date or amount</t>
+  </si>
+  <si>
+    <t>table sum per category with other</t>
+  </si>
+  <si>
+    <t>table avg per category with other</t>
+  </si>
+  <si>
+    <t>table max per category with other</t>
+  </si>
+  <si>
+    <t>table min per category with other</t>
+  </si>
+  <si>
+    <t>category changed</t>
+  </si>
+  <si>
+    <t>top X actors</t>
+  </si>
+  <si>
+    <t>more than 5 actors</t>
   </si>
 </sst>
 </file>
@@ -515,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="B9:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +528,7 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,64 +536,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" t="str">
         <f>columns!A3</f>
         <v>amount</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="str">
         <f>columns!A3</f>
         <v>amount</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="str">
         <f>columns!A3</f>
         <v>amount</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="str">
         <f>columns!A3</f>
         <v>amount</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,12 +609,12 @@
         <v>amount</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" t="str">
         <f>columns!A5</f>
@@ -622,7 +625,7 @@
         <v>amount</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,7 +641,7 @@
         <v>amount</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,12 +657,12 @@
         <v>amount</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B10" t="str">
         <f>columns!A6</f>
@@ -670,12 +673,12 @@
         <v>amount</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B11" t="str">
         <f>columns!A5</f>
@@ -686,12 +689,12 @@
         <v>amount</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B12" t="str">
         <f>columns!A5</f>
@@ -702,12 +705,12 @@
         <v>amount</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B13" t="str">
         <f>columns!A5</f>
@@ -718,12 +721,12 @@
         <v>amount</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B14" t="str">
         <f>columns!A5</f>
@@ -734,12 +737,12 @@
         <v>amount</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -748,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,7 +767,7 @@
         <v>amount</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -780,7 +783,7 @@
         <v>amount</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -796,7 +799,7 @@
         <v>amount</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,12 +815,12 @@
         <v>amount</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" t="str">
         <f>columns!A2</f>
@@ -828,12 +831,12 @@
         <v>amount</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21" t="str">
         <f>columns!A5</f>
@@ -848,12 +851,12 @@
         <v>amount</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" t="str">
         <f>columns!A5</f>
@@ -868,12 +871,12 @@
         <v>amount</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23" t="str">
         <f>columns!A5</f>
@@ -888,12 +891,12 @@
         <v>amount</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24" t="str">
         <f>columns!A5</f>
@@ -908,12 +911,12 @@
         <v>amount</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B25" t="str">
         <f>columns!A5</f>
@@ -928,12 +931,12 @@
         <v>amount</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B26" t="str">
         <f>columns!A5</f>
@@ -948,12 +951,12 @@
         <v>amount</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B27" t="str">
         <f>columns!A6</f>
@@ -968,7 +971,7 @@
         <v>amount</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -980,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486685FB-CFE5-4739-AD59-9B06E13E3C14}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,15 +1013,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1038,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>

--- a/ic.xlsx
+++ b/ic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\O006\Desktop\Perso\AIChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3695A22-F5DD-40CA-A304-88F6A4E119C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A69C9-A365-4E66-8849-6E3DDE87A1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Widget type</t>
   </si>
@@ -114,15 +114,6 @@
     <t>Column type 1</t>
   </si>
   <si>
-    <t>combined yearly amount per category</t>
-  </si>
-  <si>
-    <t>combined weekly amount per category</t>
-  </si>
-  <si>
-    <t>combined monthly amount per category</t>
-  </si>
-  <si>
     <t>bubble</t>
   </si>
   <si>
@@ -159,15 +150,6 @@
     <t>period less than 10 years, numbers of distinct months covers at least 10% of period</t>
   </si>
   <si>
-    <t>at least 3 years, last 6 years only</t>
-  </si>
-  <si>
-    <t>last 7 weeks only, numbers of distinct weeks covers at least 10% of period</t>
-  </si>
-  <si>
-    <t>last 7 months only, numbers of distinct months covers at least 10% of period</t>
-  </si>
-  <si>
     <t>last 2 years only, numbers of distinct days covers at least 10% of period</t>
   </si>
   <si>
@@ -196,6 +178,15 @@
   </si>
   <si>
     <t>more than 5 actors</t>
+  </si>
+  <si>
+    <t>last 5 years only, numbers of distinct weeks covers at least 10% of period</t>
+  </si>
+  <si>
+    <t>last 1 years only, numbers of distinct days covers at least 10% of period</t>
+  </si>
+  <si>
+    <t>last 20 years only, numbers of distinct months covers at least 10% of period</t>
   </si>
 </sst>
 </file>
@@ -516,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +536,7 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -557,7 +548,7 @@
         <v>amount</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,7 +560,7 @@
         <v>amount</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,7 +572,7 @@
         <v>amount</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -593,7 +584,7 @@
         <v>amount</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,7 +600,7 @@
         <v>amount</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,7 +616,7 @@
         <v>amount</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,7 +632,7 @@
         <v>amount</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,12 +648,12 @@
         <v>amount</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" t="str">
         <f>columns!A6</f>
@@ -673,12 +664,12 @@
         <v>amount</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" t="str">
         <f>columns!A5</f>
@@ -689,12 +680,12 @@
         <v>amount</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" t="str">
         <f>columns!A5</f>
@@ -705,12 +696,12 @@
         <v>amount</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" t="str">
         <f>columns!A5</f>
@@ -721,12 +712,12 @@
         <v>amount</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B14" t="str">
         <f>columns!A5</f>
@@ -737,12 +728,12 @@
         <v>amount</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -751,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,7 +758,7 @@
         <v>amount</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,7 +774,7 @@
         <v>amount</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,7 +790,7 @@
         <v>amount</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,7 +806,7 @@
         <v>amount</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,7 +822,7 @@
         <v>amount</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -851,7 +842,7 @@
         <v>amount</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,7 +862,7 @@
         <v>amount</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,7 +882,7 @@
         <v>amount</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -899,79 +890,19 @@
         <v>25</v>
       </c>
       <c r="B24" t="str">
-        <f>columns!A5</f>
-        <v>category</v>
-      </c>
-      <c r="C24" t="str">
-        <f>columns!A2</f>
-        <v>dates</v>
-      </c>
-      <c r="D24" t="str">
-        <f>columns!A3</f>
-        <v>amount</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="str">
-        <f>columns!A5</f>
-        <v>category</v>
-      </c>
-      <c r="C25" t="str">
-        <f>columns!A2</f>
-        <v>dates</v>
-      </c>
-      <c r="D25" t="str">
-        <f>columns!A3</f>
-        <v>amount</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="str">
-        <f>columns!A5</f>
-        <v>category</v>
-      </c>
-      <c r="C26" t="str">
-        <f>columns!A2</f>
-        <v>dates</v>
-      </c>
-      <c r="D26" t="str">
-        <f>columns!A3</f>
-        <v>amount</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="str">
         <f>columns!A6</f>
         <v>actor</v>
       </c>
-      <c r="C27" t="str">
-        <f>columns!A3</f>
-        <v>amount</v>
-      </c>
-      <c r="D27" t="str">
-        <f>columns!A3</f>
-        <v>amount</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
+      <c r="C24" t="str">
+        <f>columns!A3</f>
+        <v>amount</v>
+      </c>
+      <c r="D24" t="str">
+        <f>columns!A3</f>
+        <v>amount</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1013,15 +944,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1041,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
